--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/rnw_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/rnw_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -613,7 +613,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -629,7 +629,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
@@ -645,7 +645,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -998,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -1006,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -1014,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -1022,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1030,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1038,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -1046,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -1054,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -1062,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -1070,7 +1070,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1086,7 +1086,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1094,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -1102,7 +1102,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1110,7 +1110,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1118,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29">
@@ -1126,7 +1126,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -1134,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -1142,7 +1142,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -1150,7 +1150,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -1158,7 +1158,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -1166,7 +1166,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1174,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1182,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1190,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1198,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -1206,7 +1206,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -1214,7 +1214,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -1238,7 +1238,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -1246,7 +1246,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -1254,7 +1254,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -1270,7 +1270,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -1278,7 +1278,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -1471,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1519,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -1535,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1543,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1551,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -1567,7 +1567,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -1575,7 +1575,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -1583,7 +1583,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1591,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -1599,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -1607,7 +1607,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1623,7 +1623,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -1631,7 +1631,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -1639,7 +1639,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -1647,7 +1647,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1655,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -1663,7 +1663,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -1671,7 +1671,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -1679,7 +1679,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -1687,7 +1687,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1695,7 +1695,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -1703,7 +1703,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1711,7 +1711,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -1719,7 +1719,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1727,7 +1727,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
@@ -1735,7 +1735,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -1743,7 +1743,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -1751,7 +1751,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -1759,7 +1759,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -1767,7 +1767,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -1775,7 +1775,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -1783,7 +1783,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -1791,7 +1791,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
@@ -1799,7 +1799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -2008,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -2016,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2024,7 +2024,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -2032,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -2040,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -2048,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -2056,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -2064,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -2072,7 +2072,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -2088,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -2096,7 +2096,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -2104,7 +2104,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -2112,7 +2112,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -2120,7 +2120,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -2128,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -2136,7 +2136,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -2144,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -2152,7 +2152,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -2160,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -2168,7 +2168,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -2176,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -2184,7 +2184,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -2192,7 +2192,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -2200,7 +2200,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -2208,7 +2208,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -2216,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -2224,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -2232,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -2240,7 +2240,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -2248,7 +2248,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
@@ -2256,7 +2256,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -2264,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
@@ -2272,7 +2272,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -2280,7 +2280,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -2288,7 +2288,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -2296,7 +2296,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -2304,7 +2304,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -2312,7 +2312,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -2521,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -2529,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2537,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2545,7 +2545,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -2553,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -2561,7 +2561,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -2569,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -2577,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -2593,7 +2593,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -2601,7 +2601,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -2609,7 +2609,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -2625,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -2633,7 +2633,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -2641,7 +2641,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -2657,7 +2657,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -2665,7 +2665,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -2673,7 +2673,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -2681,7 +2681,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -2689,7 +2689,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -2697,7 +2697,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -2705,7 +2705,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -2713,7 +2713,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -2721,7 +2721,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -2729,7 +2729,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -2737,7 +2737,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -2745,7 +2745,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -2753,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -2769,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -2777,7 +2777,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -2785,7 +2785,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -2793,7 +2793,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -2801,7 +2801,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -2809,7 +2809,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -2817,7 +2817,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -2825,7 +2825,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -2986,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -2994,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -3002,7 +3002,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -3010,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -3018,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -3026,7 +3026,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -3034,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3050,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -3058,7 +3058,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -3066,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -3074,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -3082,7 +3082,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -3090,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -3106,7 +3106,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3114,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -3122,7 +3122,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -3130,7 +3130,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -3138,7 +3138,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -3146,7 +3146,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -3154,7 +3154,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -3162,7 +3162,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -3170,7 +3170,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -3178,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -3186,7 +3186,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -3210,7 +3210,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -3218,7 +3218,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -3226,7 +3226,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -3234,7 +3234,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -3242,7 +3242,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -3250,7 +3250,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -3258,7 +3258,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -3266,7 +3266,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -3274,7 +3274,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -3282,7 +3282,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -3290,7 +3290,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -3298,7 +3298,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -3306,7 +3306,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -3314,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -3322,7 +3322,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -3330,7 +3330,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -3338,7 +3338,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -3354,7 +3354,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -3619,7 +3619,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -3627,7 +3627,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3635,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -3643,7 +3643,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -3651,7 +3651,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -3659,7 +3659,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -3667,7 +3667,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -3675,7 +3675,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -3683,7 +3683,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -3691,7 +3691,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -3699,7 +3699,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -3707,7 +3707,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -3715,7 +3715,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -3723,7 +3723,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -3731,7 +3731,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -3739,7 +3739,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -3747,7 +3747,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -3755,7 +3755,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
@@ -3763,7 +3763,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -3771,7 +3771,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -3779,7 +3779,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -3787,7 +3787,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -3795,7 +3795,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -3803,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -3811,7 +3811,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -3819,7 +3819,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -3827,7 +3827,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -3835,7 +3835,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -3843,7 +3843,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
@@ -3867,7 +3867,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -3875,7 +3875,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -4004,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -4012,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -4124,7 +4124,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -4132,7 +4132,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -4140,7 +4140,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -4148,7 +4148,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -4156,7 +4156,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4164,7 +4164,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -4172,7 +4172,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4180,7 +4180,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -4188,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -4196,7 +4196,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -4204,7 +4204,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -4212,7 +4212,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -4220,7 +4220,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
@@ -4228,7 +4228,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -4236,7 +4236,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -4244,7 +4244,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -4252,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -4260,7 +4260,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -4268,7 +4268,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -4276,7 +4276,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -4284,7 +4284,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -4292,7 +4292,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -4300,7 +4300,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -4308,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -4316,7 +4316,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -4324,7 +4324,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -4332,7 +4332,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -4340,7 +4340,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
@@ -4348,7 +4348,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
@@ -4364,7 +4364,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
@@ -4380,7 +4380,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -4388,7 +4388,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53">
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -4565,7 +4565,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -4573,7 +4573,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -4581,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -4589,7 +4589,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -4597,7 +4597,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -4605,7 +4605,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -4613,7 +4613,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -4621,7 +4621,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -4629,7 +4629,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -4637,7 +4637,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -4645,7 +4645,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -4653,7 +4653,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -4661,7 +4661,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -4669,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4677,7 +4677,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4685,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4693,7 +4693,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -4701,7 +4701,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -4709,7 +4709,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -4717,7 +4717,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -4725,7 +4725,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -4733,7 +4733,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -4741,7 +4741,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -4749,7 +4749,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -4757,7 +4757,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -4765,7 +4765,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -4773,7 +4773,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -4781,7 +4781,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -4789,7 +4789,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -4797,7 +4797,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -4805,7 +4805,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -4813,7 +4813,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -4821,7 +4821,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -4829,7 +4829,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
@@ -4837,7 +4837,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -4845,7 +4845,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -4853,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -4861,7 +4861,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
@@ -4877,7 +4877,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -4901,7 +4901,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -5134,7 +5134,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -5142,7 +5142,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -5150,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -5182,7 +5182,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -5190,7 +5190,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -5198,7 +5198,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -5206,7 +5206,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -5214,7 +5214,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -5222,7 +5222,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -5230,7 +5230,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -5238,7 +5238,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -5246,7 +5246,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -5254,7 +5254,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -5262,7 +5262,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
@@ -5270,7 +5270,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -5278,7 +5278,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -5286,7 +5286,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
@@ -5294,7 +5294,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5302,7 +5302,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -5310,7 +5310,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -5318,7 +5318,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -5326,7 +5326,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -5334,7 +5334,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -5342,7 +5342,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -5350,7 +5350,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -5358,7 +5358,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46">
@@ -5366,7 +5366,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -5374,7 +5374,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -5422,7 +5422,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -5591,7 +5591,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -5599,7 +5599,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -5607,7 +5607,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -5615,7 +5615,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -5623,7 +5623,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -5631,7 +5631,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -5639,7 +5639,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -5647,7 +5647,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -5655,7 +5655,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -5663,7 +5663,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
@@ -5671,7 +5671,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -5679,7 +5679,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -5687,7 +5687,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -5695,7 +5695,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -5703,7 +5703,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -5711,7 +5711,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -5719,7 +5719,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -5727,7 +5727,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -5735,7 +5735,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -5743,7 +5743,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -5751,7 +5751,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -5759,7 +5759,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -5767,7 +5767,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -5775,7 +5775,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -5783,7 +5783,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -5791,7 +5791,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -5799,7 +5799,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -5807,7 +5807,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -5815,7 +5815,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -5823,7 +5823,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -5831,7 +5831,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -5839,7 +5839,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -5847,7 +5847,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -5855,7 +5855,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
@@ -5863,7 +5863,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -5871,7 +5871,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -5879,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -5887,7 +5887,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -5919,7 +5919,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -5935,7 +5935,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -6056,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -6080,7 +6080,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -6120,7 +6120,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -6160,7 +6160,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -6176,7 +6176,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -6264,7 +6264,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -6280,7 +6280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -6296,7 +6296,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -6312,7 +6312,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -6328,7 +6328,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -6593,7 +6593,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -6601,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -6617,7 +6617,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -6625,7 +6625,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -6657,7 +6657,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -6665,7 +6665,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -6673,7 +6673,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -6681,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -6689,7 +6689,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -6697,7 +6697,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -6705,7 +6705,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -6713,7 +6713,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -6721,7 +6721,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -6729,7 +6729,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -6737,7 +6737,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -6745,7 +6745,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -6753,7 +6753,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -6761,7 +6761,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -6769,7 +6769,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -6777,7 +6777,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -6785,7 +6785,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -6793,7 +6793,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -6801,7 +6801,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -6809,7 +6809,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -6817,7 +6817,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -6825,7 +6825,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -6833,7 +6833,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -6841,7 +6841,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -6849,7 +6849,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -6857,7 +6857,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -6865,7 +6865,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -6873,7 +6873,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -6881,7 +6881,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -6889,7 +6889,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -6897,7 +6897,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -6905,7 +6905,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -6913,7 +6913,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -6929,7 +6929,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
@@ -6937,7 +6937,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
@@ -6945,7 +6945,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -6953,7 +6953,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -6961,7 +6961,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -7090,7 +7090,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -7098,7 +7098,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -7106,7 +7106,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -7114,7 +7114,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -7122,7 +7122,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -7130,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -7138,7 +7138,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -7146,7 +7146,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -7154,7 +7154,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -7162,7 +7162,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -7170,7 +7170,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -7178,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -7186,7 +7186,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -7194,7 +7194,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -7202,7 +7202,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -7210,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -7218,7 +7218,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -7226,7 +7226,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -7234,7 +7234,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -7242,7 +7242,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -7250,7 +7250,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -7258,7 +7258,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -7266,7 +7266,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -7274,7 +7274,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -7282,7 +7282,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -7290,7 +7290,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -7298,7 +7298,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
@@ -7306,7 +7306,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -7314,7 +7314,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -7322,7 +7322,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -7330,7 +7330,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -7338,7 +7338,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -7346,7 +7346,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -7354,7 +7354,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -7362,7 +7362,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -7370,7 +7370,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -7378,7 +7378,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -7386,7 +7386,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -7394,7 +7394,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -7402,7 +7402,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -7410,7 +7410,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -7418,7 +7418,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -7426,7 +7426,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -7434,7 +7434,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -7442,7 +7442,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
@@ -7450,7 +7450,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
@@ -7458,7 +7458,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -7466,7 +7466,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -7474,7 +7474,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
@@ -7482,7 +7482,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -7595,7 +7595,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -7603,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -7611,7 +7611,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -7619,7 +7619,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -7627,7 +7627,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -7635,7 +7635,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -7643,7 +7643,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -7651,7 +7651,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -7659,7 +7659,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -7667,7 +7667,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -7675,7 +7675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -7683,7 +7683,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -7691,7 +7691,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -7699,7 +7699,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -7707,7 +7707,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -7715,7 +7715,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -7723,7 +7723,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
@@ -7731,7 +7731,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -7739,7 +7739,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -7747,7 +7747,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -7755,7 +7755,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -7763,7 +7763,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -7771,7 +7771,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -7779,7 +7779,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -7787,7 +7787,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -7795,7 +7795,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -7803,7 +7803,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -7811,7 +7811,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
@@ -7819,7 +7819,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -7827,7 +7827,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -7835,7 +7835,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -7843,7 +7843,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -7851,7 +7851,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -7859,7 +7859,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -7867,7 +7867,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
@@ -7875,7 +7875,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -7883,7 +7883,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -7891,7 +7891,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -7899,7 +7899,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -7907,7 +7907,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -7915,7 +7915,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -7923,7 +7923,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -7931,7 +7931,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -7939,7 +7939,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -7947,7 +7947,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -7955,7 +7955,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
@@ -7963,7 +7963,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
@@ -7971,7 +7971,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
@@ -7979,7 +7979,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -7987,7 +7987,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
@@ -7995,7 +7995,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -8003,7 +8003,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -8100,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8108,7 +8108,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -8116,7 +8116,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -8124,7 +8124,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -8132,7 +8132,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -8140,7 +8140,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -8148,7 +8148,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -8156,7 +8156,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -8164,7 +8164,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -8172,7 +8172,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -8180,7 +8180,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -8188,7 +8188,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -8196,7 +8196,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -8204,7 +8204,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -8212,7 +8212,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -8220,7 +8220,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -8228,7 +8228,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -8236,7 +8236,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -8244,7 +8244,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -8252,7 +8252,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -8260,7 +8260,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -8268,7 +8268,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -8276,7 +8276,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
@@ -8284,7 +8284,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -8292,7 +8292,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -8300,7 +8300,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -8308,7 +8308,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -8316,7 +8316,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -8324,7 +8324,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -8332,7 +8332,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -8340,7 +8340,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -8348,7 +8348,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -8356,7 +8356,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -8364,7 +8364,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -8372,7 +8372,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -8380,7 +8380,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -8388,7 +8388,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -8396,7 +8396,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -8404,7 +8404,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -8412,7 +8412,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -8420,7 +8420,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -8428,7 +8428,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -8436,7 +8436,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -8444,7 +8444,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -8452,7 +8452,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -8460,7 +8460,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -8468,7 +8468,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
@@ -8476,7 +8476,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
@@ -8484,7 +8484,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52">
@@ -8492,7 +8492,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
@@ -8500,7 +8500,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -8508,7 +8508,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -8516,7 +8516,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -8613,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8621,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -8629,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -8637,7 +8637,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -8645,7 +8645,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -8653,7 +8653,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -8661,7 +8661,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -8669,7 +8669,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -8677,7 +8677,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -8685,7 +8685,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8693,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -8701,7 +8701,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -8709,7 +8709,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -8717,7 +8717,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -8725,7 +8725,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -8733,7 +8733,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -8741,7 +8741,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -8749,7 +8749,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -8757,7 +8757,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
@@ -8765,7 +8765,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -8773,7 +8773,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -8781,7 +8781,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -8789,7 +8789,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -8797,7 +8797,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -8805,7 +8805,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -8813,7 +8813,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -8821,7 +8821,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -8829,7 +8829,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -8837,7 +8837,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -8845,7 +8845,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -8853,7 +8853,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
@@ -8861,7 +8861,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -8869,7 +8869,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -8877,7 +8877,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -8885,7 +8885,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -8893,7 +8893,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -8901,7 +8901,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -8909,7 +8909,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -8917,7 +8917,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -8925,7 +8925,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
@@ -8933,7 +8933,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -8941,7 +8941,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -8949,7 +8949,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -8957,7 +8957,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -8965,7 +8965,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -8973,7 +8973,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
@@ -8981,7 +8981,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -8989,7 +8989,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -8997,7 +8997,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52">
@@ -9005,7 +9005,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -9013,7 +9013,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -9021,7 +9021,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -9029,7 +9029,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -9037,7 +9037,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -9134,7 +9134,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -9142,7 +9142,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -9158,7 +9158,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -9166,7 +9166,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -9182,7 +9182,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -9190,7 +9190,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -9198,7 +9198,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -9206,7 +9206,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -9222,7 +9222,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -9230,7 +9230,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -9246,7 +9246,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -9262,7 +9262,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -9278,7 +9278,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -9286,7 +9286,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -9294,7 +9294,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -9302,7 +9302,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -9310,7 +9310,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -9318,7 +9318,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -9326,7 +9326,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -9334,7 +9334,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -9342,7 +9342,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -9350,7 +9350,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -9358,7 +9358,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -9366,7 +9366,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -9374,7 +9374,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -9382,7 +9382,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -9390,7 +9390,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -9398,7 +9398,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -9406,7 +9406,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -9414,7 +9414,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -9422,7 +9422,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -9639,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -9647,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -9655,7 +9655,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -9663,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -9671,7 +9671,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -9679,7 +9679,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -9687,7 +9687,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -9695,7 +9695,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -9703,7 +9703,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -9711,7 +9711,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -9719,7 +9719,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -9727,7 +9727,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -9735,7 +9735,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -9743,7 +9743,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -9751,7 +9751,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -9759,7 +9759,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -9767,7 +9767,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -9775,7 +9775,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -9783,7 +9783,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -9791,7 +9791,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
@@ -9799,7 +9799,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -9807,7 +9807,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -9815,7 +9815,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -9823,7 +9823,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -9831,7 +9831,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -9839,7 +9839,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -9847,7 +9847,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -9855,7 +9855,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -9863,7 +9863,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -9871,7 +9871,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -9879,7 +9879,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -9887,7 +9887,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -9895,7 +9895,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -9903,7 +9903,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -9911,7 +9911,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -9919,7 +9919,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -9927,7 +9927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -9935,7 +9935,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -9943,7 +9943,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42">
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -10160,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -10168,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -10176,7 +10176,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -10184,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -10192,7 +10192,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -10200,7 +10200,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -10208,7 +10208,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -10216,7 +10216,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -10224,7 +10224,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -10232,7 +10232,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -10240,7 +10240,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -10248,7 +10248,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -10256,7 +10256,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -10264,7 +10264,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -10272,7 +10272,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -10280,7 +10280,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -10288,7 +10288,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -10296,7 +10296,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -10304,7 +10304,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -10312,7 +10312,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -10320,7 +10320,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -10328,7 +10328,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -10336,7 +10336,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -10344,7 +10344,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -10352,7 +10352,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -10360,7 +10360,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -10368,7 +10368,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -10376,7 +10376,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -10384,7 +10384,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -10392,7 +10392,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -10400,7 +10400,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -10408,7 +10408,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -10416,7 +10416,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -10424,7 +10424,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -10432,7 +10432,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -10440,7 +10440,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -10448,7 +10448,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -10456,7 +10456,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -10464,7 +10464,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -10472,7 +10472,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
@@ -10657,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10665,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -10673,7 +10673,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -10681,7 +10681,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -10689,7 +10689,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -10697,7 +10697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -10705,7 +10705,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -10713,7 +10713,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -10721,7 +10721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -10729,7 +10729,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -10737,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -10745,7 +10745,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -10753,7 +10753,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -10761,7 +10761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -10769,7 +10769,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -10777,7 +10777,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -10785,7 +10785,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -10793,7 +10793,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -10801,7 +10801,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -10809,7 +10809,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -10817,7 +10817,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -10825,7 +10825,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -10833,7 +10833,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -10841,7 +10841,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -10849,7 +10849,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -10857,7 +10857,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -10865,7 +10865,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -10873,7 +10873,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
@@ -10881,7 +10881,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -10889,7 +10889,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -10897,7 +10897,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -10905,7 +10905,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -10913,7 +10913,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -10921,7 +10921,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -10929,7 +10929,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -10937,7 +10937,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -10945,7 +10945,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -10953,7 +10953,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -10961,7 +10961,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
@@ -10969,7 +10969,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -10977,7 +10977,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -10985,7 +10985,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -10993,7 +10993,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -11178,7 +11178,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -11186,7 +11186,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -11194,7 +11194,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -11202,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -11210,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -11218,7 +11218,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -11226,7 +11226,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -11234,7 +11234,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -11242,7 +11242,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -11250,7 +11250,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -11258,7 +11258,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -11266,7 +11266,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -11274,7 +11274,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -11282,7 +11282,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -11290,7 +11290,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -11298,7 +11298,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -11306,7 +11306,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -11314,7 +11314,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -11322,7 +11322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -11330,7 +11330,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -11338,7 +11338,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -11346,7 +11346,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -11354,7 +11354,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -11362,7 +11362,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
@@ -11370,7 +11370,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -11378,7 +11378,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -11386,7 +11386,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -11394,7 +11394,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -11402,7 +11402,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -11410,7 +11410,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33">
@@ -11418,7 +11418,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
@@ -11426,7 +11426,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -11434,7 +11434,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -11442,7 +11442,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -11450,7 +11450,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -11458,7 +11458,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39">
@@ -11466,7 +11466,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -11474,7 +11474,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -11482,7 +11482,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -11490,7 +11490,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -11498,7 +11498,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -11506,7 +11506,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
@@ -11514,7 +11514,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -11522,7 +11522,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -11691,7 +11691,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -11699,7 +11699,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -11707,7 +11707,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -11715,7 +11715,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -11723,7 +11723,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -11731,7 +11731,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -11739,7 +11739,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -11747,7 +11747,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -11755,7 +11755,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -11763,7 +11763,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -11771,7 +11771,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -11779,7 +11779,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -11787,7 +11787,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -11795,7 +11795,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -11803,7 +11803,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -11811,7 +11811,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -11819,7 +11819,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -11827,7 +11827,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -11835,7 +11835,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -11843,7 +11843,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -11851,7 +11851,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -11859,7 +11859,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -11867,7 +11867,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -11875,7 +11875,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -11883,7 +11883,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -11891,7 +11891,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -11899,7 +11899,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -11907,7 +11907,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -11915,7 +11915,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -11923,7 +11923,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -11931,7 +11931,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -11939,7 +11939,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -11947,7 +11947,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -11955,7 +11955,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -11963,7 +11963,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -11971,7 +11971,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -11979,7 +11979,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -11987,7 +11987,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -11995,7 +11995,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
@@ -12003,7 +12003,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
@@ -12011,7 +12011,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
@@ -12019,7 +12019,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
@@ -12027,7 +12027,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -12035,7 +12035,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
@@ -12043,7 +12043,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -12212,7 +12212,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -12220,7 +12220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -12228,7 +12228,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -12236,7 +12236,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -12244,7 +12244,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -12252,7 +12252,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -12260,7 +12260,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -12268,7 +12268,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -12276,7 +12276,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -12284,7 +12284,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -12292,7 +12292,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -12300,7 +12300,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -12308,7 +12308,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -12316,7 +12316,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -12324,7 +12324,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -12332,7 +12332,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -12340,7 +12340,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -12348,7 +12348,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -12356,7 +12356,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -12364,7 +12364,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -12372,7 +12372,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -12380,7 +12380,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -12388,7 +12388,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -12396,7 +12396,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -12404,7 +12404,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -12412,7 +12412,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -12420,7 +12420,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -12428,7 +12428,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
@@ -12436,7 +12436,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -12444,7 +12444,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -12452,7 +12452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
@@ -12460,7 +12460,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
@@ -12468,7 +12468,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
@@ -12476,7 +12476,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
@@ -12484,7 +12484,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -12492,7 +12492,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -12500,7 +12500,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -12508,7 +12508,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -12516,7 +12516,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -12524,7 +12524,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -12532,7 +12532,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -12540,7 +12540,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -12548,7 +12548,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -12556,7 +12556,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -12564,7 +12564,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
